--- a/TestEnvironment/MasterData/MasterDataFile.xlsx
+++ b/TestEnvironment/MasterData/MasterDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeraj Kumar\PycharmProjects\BCM\TestEnvironment\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD63C9D-7418-4CC3-B853-04216B78B8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E77E7-9429-432E-8B1D-9C3CC8ED9F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16666" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16700" uniqueCount="235">
   <si>
     <t>Loader</t>
   </si>
@@ -641,6 +641,96 @@
   <si>
     <t>//div[text()='Approvals']</t>
   </si>
+  <si>
+    <t>//div[text()='Plan Services']</t>
+  </si>
+  <si>
+    <t>PlanServicesTabButton</t>
+  </si>
+  <si>
+    <t>PlanServicesTabButtonText</t>
+  </si>
+  <si>
+    <t>PlanHistoryTabButton</t>
+  </si>
+  <si>
+    <t>PlanHistoryTabButtonText</t>
+  </si>
+  <si>
+    <t>//div[text()='Plan History']</t>
+  </si>
+  <si>
+    <t>//span[text()='Version']</t>
+  </si>
+  <si>
+    <t>SBCExamplesTabButton</t>
+  </si>
+  <si>
+    <t>SBCExamplesTabButtonText</t>
+  </si>
+  <si>
+    <t>//div[text()='SBC Examples']</t>
+  </si>
+  <si>
+    <t>//button[text()='Run SBC Calculator']</t>
+  </si>
+  <si>
+    <t>RelatedActionsTabButton</t>
+  </si>
+  <si>
+    <t>RelatedActionsTabButtonText</t>
+  </si>
+  <si>
+    <t>//div[text()='Related Actions']</t>
+  </si>
+  <si>
+    <t>//strong[text()='Edit Plan']</t>
+  </si>
+  <si>
+    <t>SummaryTabButton</t>
+  </si>
+  <si>
+    <t>SummaryTabButtonText</t>
+  </si>
+  <si>
+    <t>//div[text()='Summary']</t>
+  </si>
+  <si>
+    <t>EditPlanButton</t>
+  </si>
+  <si>
+    <t>EditPlanButtonText</t>
+  </si>
+  <si>
+    <t>//button[text()='Edit Plan']</t>
+  </si>
+  <si>
+    <t>BulkCopyPlanButton</t>
+  </si>
+  <si>
+    <t>BulkCopyPlanButtonText</t>
+  </si>
+  <si>
+    <t>//button[text()='Bulk Copy Plan']</t>
+  </si>
+  <si>
+    <t>//span[text()='Number of Copies']</t>
+  </si>
+  <si>
+    <t>ReviewPlanButton</t>
+  </si>
+  <si>
+    <t>ReviewPlanButtonText</t>
+  </si>
+  <si>
+    <t>//button[text()='Review Plan']</t>
+  </si>
+  <si>
+    <t>CancelReviewPlanButton</t>
+  </si>
+  <si>
+    <t>//button[text()='Cancel']</t>
+  </si>
 </sst>
 </file>
 
@@ -1399,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1A3592-D3F3-4811-95E1-08361FF61665}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1591,9 +1681,145 @@
     </row>
     <row r="23" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A30" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A31" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A32" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A34" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A37" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A38" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A39" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1749,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC92B1E1-3EED-47CA-A19D-B93759FD8CAF}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
